--- a/Output/greenhouse_design_2.xlsx
+++ b/Output/greenhouse_design_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C90788-A029-4308-B7F8-F23F7527BDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D40749-E164-4E41-8F4E-FE2DD342B0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12264" yWindow="720" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1ACDC3E0-F9DF-4345-84E3-4162F73D2435}"/>
+    <workbookView xWindow="13188" yWindow="1008" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1ACDC3E0-F9DF-4345-84E3-4162F73D2435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -242,6 +239,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,12 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,872 +584,872 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>1</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="22">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>2</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
         <v>3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>3</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="H4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="21">
         <v>3</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>3</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20">
-        <v>4</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="22">
-        <v>4</v>
-      </c>
-      <c r="G5" s="17">
-        <v>4</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="24">
-        <v>4</v>
-      </c>
-      <c r="J5" s="17">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="23">
+        <v>4</v>
+      </c>
+      <c r="J5" s="16">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>5</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
         <v>6</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>6</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="22">
-        <v>9</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="E7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16">
         <v>6</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>6</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>7</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="22">
-        <v>10</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="E8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6">
         <v>7</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>7</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="19">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
         <v>11</v>
       </c>
-      <c r="G9" s="17">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8</v>
-      </c>
-      <c r="J9" s="17">
-        <v>8</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="G9" s="16">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+      <c r="J9" s="16">
+        <v>8</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>8</v>
-      </c>
-      <c r="D10" s="20">
-        <v>9</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="17">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9</v>
-      </c>
-      <c r="J10" s="17">
-        <v>9</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="G10" s="16">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9</v>
+      </c>
+      <c r="J10" s="16">
+        <v>9</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>9</v>
-      </c>
-      <c r="D11" s="20">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
         <v>13</v>
       </c>
-      <c r="G11" s="17">
-        <v>10</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="22">
-        <v>10</v>
-      </c>
-      <c r="J11" s="17">
-        <v>10</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="22">
+      <c r="G11" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="21">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16">
+        <v>10</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19">
         <v>11</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="E12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="21">
         <v>14</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
         <v>11</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>11</v>
       </c>
-      <c r="K12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="22">
+      <c r="K12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
         <v>11</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>12</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="E13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21">
         <v>15</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>12</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="21">
         <v>12</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>12</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="K13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
         <v>18</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>13</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="21">
         <v>13</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>13</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
         <v>19</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>14</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>15</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="22">
+      <c r="E16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="21">
         <v>21</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12">
-        <v>4</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
         <v>25</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>16</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="21">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11">
         <v>5</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
         <v>27</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11">
         <v>6</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>18</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="E19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="21">
         <v>28</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>18</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
         <v>7</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
         <v>30</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12">
-        <v>8</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>8</v>
+      </c>
+      <c r="G21" s="16">
         <v>20</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="12">
-        <v>9</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>9</v>
+      </c>
+      <c r="G22" s="16">
         <v>21</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="24">
+      <c r="H22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="23">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>2</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>22</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="12">
-        <v>4</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="H24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>5</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>24</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="21">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>3</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="H26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>5</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>26</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="H28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>28</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>29</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="H30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="21">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <v>30</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="H31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1477,540 +1477,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="25">
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="D9" s="13">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="24">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="31">
-        <v>8</v>
-      </c>
-      <c r="D10" s="14">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="31">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
         <v>11</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="31">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="31">
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="27">
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="25">
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="27">
         <v>3</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="24">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="31">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="B17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="27">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="25">
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="24">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="27">
         <v>5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>17</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="24">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="27">
         <v>6</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>18</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="25">
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="31">
+      <c r="B20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="27">
         <v>7</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>19</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="25">
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="31">
-        <v>8</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="27">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13">
         <v>20</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="25">
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="31">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="27">
+        <v>9</v>
+      </c>
+      <c r="D22" s="13">
         <v>21</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="25">
+      <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="27">
         <v>2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>22</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="25">
+      <c r="E23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="31">
-        <v>4</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="27">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13">
         <v>23</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="27">
         <v>5</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>24</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="25">
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="27">
         <v>3</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>25</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="25">
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="28">
         <v>5</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>26</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="27">
+      <c r="E27" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="26">
         <v>12</v>
       </c>
     </row>
